--- a/Subject.xlsx
+++ b/Subject.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Best\Thammasat\ปี 3 เทอม 1\CN331\Assignment\AS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FA2CCE-A769-46DB-AC0B-0F1878B02D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46DDF51-FCCC-493B-8B69-83BAC799DACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1D31300-1A6E-429B-B804-0E8218F4CA5D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>subject</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>LT103</t>
+  </si>
+  <si>
+    <t>seat</t>
   </si>
 </sst>
 </file>
@@ -546,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DA7041-CD0C-4573-82F2-A1DEA127A591}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +560,7 @@
     <col min="1" max="1" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,16 +571,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -587,8 +593,11 @@
       <c r="C2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -599,7 +608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -610,7 +619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -621,7 +630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -632,7 +641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -643,7 +652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -654,7 +663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -665,7 +674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -676,7 +685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -687,7 +696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -698,7 +707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -709,7 +718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -720,7 +729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -731,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>

--- a/Subject.xlsx
+++ b/Subject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Best\Thammasat\ปี 3 เทอม 1\CN331\Assignment\AS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46DDF51-FCCC-493B-8B69-83BAC799DACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2C24BF-D4C5-42A6-98A0-00C5E567A6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A1D31300-1A6E-429B-B804-0E8218F4CA5D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="65">
   <si>
     <t>subject</t>
   </si>
@@ -47,9 +47,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>section</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>Life and Time management</t>
   </si>
   <si>
-    <t>Farming</t>
-  </si>
-  <si>
     <t>Statistic</t>
   </si>
   <si>
@@ -198,16 +192,58 @@
   </si>
   <si>
     <t>seat</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>start time</t>
+  </si>
+  <si>
+    <t>end time</t>
+  </si>
+  <si>
+    <t>??????</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Home Economic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -233,8 +269,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,18 +586,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DA7041-CD0C-4573-82F2-A1DEA127A591}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -571,286 +612,1015 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>110001</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H2" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>110002</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>420001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>420002</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>120001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>320001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>520001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>120001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>210001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>620001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>310001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>310002</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>620001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>120001</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>210001</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>410001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>510001</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>120001</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>141001</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>344001</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>544001</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>232001</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
         <v>33</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>512001</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>510001</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>50</v>
+      </c>
+      <c r="E26">
+        <v>210001</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+      <c r="E27">
+        <v>310001</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>50</v>
+      </c>
+      <c r="E28">
+        <v>520001</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>50</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <v>244001</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>544001</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <v>454001</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="H34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>50</v>
+      </c>
+      <c r="E35">
+        <v>120001</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <v>220001</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>220001</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>50</v>
+      </c>
+      <c r="E38">
+        <v>620001</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>50</v>
+      </c>
+      <c r="E39">
+        <v>620001</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H39" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>